--- a/fuentes/contenidos/grado10/guion05/Escaleta_LE_10_05.xlsx
+++ b/fuentes/contenidos/grado10/guion05/Escaleta_LE_10_05.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado10\guion05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25358" windowHeight="14003"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -563,9 +568,6 @@
     <t>Recurso M5D-01</t>
   </si>
   <si>
-    <t>La teroía de la recepción</t>
-  </si>
-  <si>
     <t>Analiza los apartes sobre la teoría de la recepción</t>
   </si>
   <si>
@@ -656,9 +658,6 @@
     <t>Escribe los objetivos y la introducción de una monografía</t>
   </si>
   <si>
-    <t xml:space="preserve"> La estructura de una monografía </t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Escribe una parte de una monografía</t>
   </si>
   <si>
@@ -786,6 +785,12 @@
   </si>
   <si>
     <t>Actividad para investigar sobre la vida y obra del escritor granadino</t>
+  </si>
+  <si>
+    <t>La teoría de la recepción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La estructura de una monografía </t>
   </si>
 </sst>
 </file>
@@ -827,12 +832,14 @@
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1231,16 +1238,34 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1280,24 +1305,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1740,126 +1747,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="1" max="1" width="10.06640625" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" customWidth="1"/>
+    <col min="4" max="4" width="51.46484375" customWidth="1"/>
+    <col min="5" max="5" width="45.86328125" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="30.46484375" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.796875" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="17.46484375" customWidth="1"/>
     <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="37.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.46484375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.59765625" customWidth="1"/>
     <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" customWidth="1"/>
+    <col min="20" max="20" width="25.796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="25" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:21" s="25" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="59"/>
+      <c r="O1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="48"/>
+    <row r="2" spans="1:21" s="25" customFormat="1" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="57"/>
-    </row>
-    <row r="3" spans="1:21" ht="29" thickTop="1">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="42"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
@@ -1895,7 +1902,7 @@
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
       <c r="O3" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P3" s="29" t="s">
         <v>19</v>
@@ -1916,7 +1923,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="70">
+    <row r="4" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
@@ -1954,7 +1961,7 @@
         <v>32</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P4" s="31" t="s">
         <v>19</v>
@@ -1975,7 +1982,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="56">
+    <row r="5" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
@@ -2013,7 +2020,7 @@
         <v>28</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>19</v>
@@ -2034,7 +2041,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="42">
+    <row r="6" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
@@ -2072,7 +2079,7 @@
         <v>121</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P6" s="31" t="s">
         <v>19</v>
@@ -2093,7 +2100,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="42">
+    <row r="7" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
@@ -2133,7 +2140,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P7" s="31" t="s">
         <v>19</v>
@@ -2154,7 +2161,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="70">
+    <row r="8" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
@@ -2194,7 +2201,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P8" s="31" t="s">
         <v>19</v>
@@ -2215,7 +2222,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="56">
+    <row r="9" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
@@ -2255,7 +2262,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>19</v>
@@ -2276,7 +2283,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="42">
+    <row r="10" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
@@ -2316,7 +2323,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P10" s="31" t="s">
         <v>19</v>
@@ -2337,7 +2344,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="28">
+    <row r="11" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -2377,7 +2384,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>19</v>
@@ -2398,7 +2405,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="42">
+    <row r="12" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
@@ -2438,7 +2445,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P12" s="31" t="s">
         <v>19</v>
@@ -2459,7 +2466,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="84">
+    <row r="13" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
@@ -2499,7 +2506,7 @@
         <v>121</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>19</v>
@@ -2520,7 +2527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="84">
+    <row r="14" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
@@ -2531,10 +2538,10 @@
         <v>123</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="34" t="s">
@@ -2560,7 +2567,7 @@
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P14" s="31" t="s">
         <v>19</v>
@@ -2581,7 +2588,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="70">
+    <row r="15" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
@@ -2592,16 +2599,16 @@
         <v>123</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>179</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>180</v>
       </c>
       <c r="H15" s="31">
         <v>13</v>
@@ -2610,7 +2617,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2623,7 +2630,7 @@
         <v>36</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>19</v>
@@ -2644,7 +2651,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="42">
+    <row r="16" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="16" t="s">
         <v>16</v>
       </c>
@@ -2655,7 +2662,7 @@
         <v>123</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>164</v>
@@ -2684,7 +2691,7 @@
         <v>121</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P16" s="31" t="s">
         <v>19</v>
@@ -2705,7 +2712,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="56">
+    <row r="17" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
@@ -2716,12 +2723,12 @@
         <v>123</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
       <c r="G17" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H17" s="31">
         <v>15</v>
@@ -2730,7 +2737,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2743,7 +2750,7 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>19</v>
@@ -2758,13 +2765,13 @@
         <v>174</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="70">
+    <row r="18" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
@@ -2775,14 +2782,14 @@
         <v>123</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H18" s="31">
         <v>16</v>
@@ -2791,7 +2798,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2804,7 +2811,7 @@
         <v>27</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P18" s="31" t="s">
         <v>19</v>
@@ -2819,13 +2826,13 @@
         <v>131</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U18" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="42">
+    <row r="19" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="16" t="s">
         <v>16</v>
       </c>
@@ -2836,14 +2843,14 @@
         <v>123</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>164</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" s="31">
         <v>17</v>
@@ -2852,7 +2859,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2865,7 +2872,7 @@
         <v>121</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P19" s="31" t="s">
         <v>19</v>
@@ -2880,13 +2887,13 @@
         <v>131</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U19" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="42">
+    <row r="20" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
         <v>16</v>
       </c>
@@ -2897,7 +2904,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
@@ -2911,7 +2918,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2924,7 +2931,7 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P20" s="31" t="s">
         <v>19</v>
@@ -2939,13 +2946,13 @@
         <v>174</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="42">
+    <row r="21" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="16" t="s">
         <v>16</v>
       </c>
@@ -2956,14 +2963,14 @@
         <v>123</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H21" s="31">
         <v>19</v>
@@ -2972,7 +2979,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2985,7 +2992,7 @@
         <v>36</v>
       </c>
       <c r="O21" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P21" s="31" t="s">
         <v>19</v>
@@ -3000,13 +3007,13 @@
         <v>131</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="84">
+    <row r="22" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="16" t="s">
         <v>16</v>
       </c>
@@ -3017,14 +3024,14 @@
         <v>123</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>164</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H22" s="31">
         <v>20</v>
@@ -3033,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -3046,7 +3053,7 @@
         <v>121</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P22" s="31" t="s">
         <v>19</v>
@@ -3061,13 +3068,13 @@
         <v>131</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U22" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="56">
+    <row r="23" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="16" t="s">
         <v>16</v>
       </c>
@@ -3078,14 +3085,14 @@
         <v>123</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H23" s="31">
         <v>21</v>
@@ -3094,7 +3101,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -3107,7 +3114,7 @@
         <v>24</v>
       </c>
       <c r="O23" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>19</v>
@@ -3122,13 +3129,13 @@
         <v>131</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="70">
+    <row r="24" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
@@ -3139,14 +3146,14 @@
         <v>123</v>
       </c>
       <c r="D24" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H24" s="31">
         <v>22</v>
@@ -3155,7 +3162,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -3168,7 +3175,7 @@
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P24" s="31" t="s">
         <v>19</v>
@@ -3183,13 +3190,13 @@
         <v>174</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U24" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="42">
+    <row r="25" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="16" t="s">
         <v>16</v>
       </c>
@@ -3200,14 +3207,14 @@
         <v>123</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>164</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H25" s="31">
         <v>23</v>
@@ -3216,7 +3223,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -3229,7 +3236,7 @@
         <v>121</v>
       </c>
       <c r="O25" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P25" s="31" t="s">
         <v>19</v>
@@ -3241,16 +3248,16 @@
         <v>173</v>
       </c>
       <c r="S25" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="U25" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="T25" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="42">
+    </row>
+    <row r="26" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="16" t="s">
         <v>16</v>
       </c>
@@ -3261,12 +3268,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="34" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H26" s="31">
         <v>24</v>
@@ -3275,7 +3282,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -3288,7 +3295,7 @@
         <v>120</v>
       </c>
       <c r="O26" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P26" s="31" t="s">
         <v>19</v>
@@ -3303,13 +3310,13 @@
         <v>131</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="28">
+    <row r="27" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="16" t="s">
         <v>16</v>
       </c>
@@ -3320,7 +3327,7 @@
         <v>123</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
@@ -3334,7 +3341,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -3354,7 +3361,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" ht="42">
+    <row r="28" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="16" t="s">
         <v>16</v>
       </c>
@@ -3365,12 +3372,12 @@
         <v>123</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H28" s="31">
         <v>26</v>
@@ -3379,7 +3386,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3392,7 +3399,7 @@
         <v>32</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P28" s="31" t="s">
         <v>19</v>
@@ -3407,13 +3414,13 @@
         <v>131</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="112">
+    <row r="29" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="16" t="s">
         <v>16</v>
       </c>
@@ -3424,7 +3431,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
@@ -3436,7 +3443,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3449,7 +3456,7 @@
         <v>52</v>
       </c>
       <c r="O29" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P29" s="31" t="s">
         <v>20</v>
@@ -3464,13 +3471,13 @@
         <v>131</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U29" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15">
+    <row r="30" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="4"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -3493,7 +3500,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15">
+    <row r="31" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="4"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -3516,7 +3523,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="15">
+    <row r="32" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -3539,7 +3546,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15">
+    <row r="33" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -3562,7 +3569,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15">
+    <row r="34" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -3585,7 +3592,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15">
+    <row r="35" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3608,7 +3615,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15">
+    <row r="36" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3631,7 +3638,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15">
+    <row r="37" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3654,7 +3661,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15">
+    <row r="38" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3677,7 +3684,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15">
+    <row r="39" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3700,7 +3707,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15">
+    <row r="40" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3723,7 +3730,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15">
+    <row r="41" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3746,7 +3753,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15">
+    <row r="42" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3769,7 +3776,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15">
+    <row r="43" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3792,7 +3799,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15">
+    <row r="44" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3815,7 +3822,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15">
+    <row r="45" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3838,7 +3845,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15">
+    <row r="46" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3861,7 +3868,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15">
+    <row r="47" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3884,7 +3891,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15">
+    <row r="48" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3907,7 +3914,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15">
+    <row r="49" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3930,7 +3937,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15">
+    <row r="50" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3953,7 +3960,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15">
+    <row r="51" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3976,7 +3983,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15">
+    <row r="52" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3999,7 +4006,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15">
+    <row r="53" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4022,7 +4029,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15">
+    <row r="54" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4045,7 +4052,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15">
+    <row r="55" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4068,7 +4075,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15">
+    <row r="56" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4091,7 +4098,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15">
+    <row r="57" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4114,7 +4121,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15">
+    <row r="58" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -4137,7 +4144,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15">
+    <row r="59" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -4160,7 +4167,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15">
+    <row r="60" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4183,7 +4190,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15">
+    <row r="61" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4206,7 +4213,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15">
+    <row r="62" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4229,7 +4236,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15">
+    <row r="63" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4252,7 +4259,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15">
+    <row r="64" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4275,7 +4282,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15">
+    <row r="65" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4298,7 +4305,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15">
+    <row r="66" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4321,7 +4328,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15">
+    <row r="67" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4344,7 +4351,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15">
+    <row r="68" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4367,7 +4374,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15">
+    <row r="69" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4390,7 +4397,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15">
+    <row r="70" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -4413,7 +4420,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" ht="15">
+    <row r="71" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A71" s="4"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -4436,7 +4443,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="72" spans="1:21" ht="15">
+    <row r="72" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A72" s="4"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -4459,775 +4466,775 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P73" s="32"/>
     </row>
-    <row r="74" spans="1:21" hidden="1">
+    <row r="74" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P74" s="32"/>
     </row>
-    <row r="75" spans="1:21" hidden="1">
+    <row r="75" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P75" s="32"/>
     </row>
-    <row r="76" spans="1:21" hidden="1">
+    <row r="76" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P76" s="32"/>
     </row>
-    <row r="77" spans="1:21" hidden="1">
+    <row r="77" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P77" s="32"/>
     </row>
-    <row r="78" spans="1:21" hidden="1">
+    <row r="78" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P78" s="32"/>
     </row>
-    <row r="79" spans="1:21" hidden="1">
+    <row r="79" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P79" s="32"/>
     </row>
-    <row r="80" spans="1:21" hidden="1">
+    <row r="80" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P80" s="32"/>
     </row>
-    <row r="81" spans="1:16" hidden="1">
+    <row r="81" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P81" s="32"/>
     </row>
-    <row r="82" spans="1:16" hidden="1">
+    <row r="82" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P82" s="32"/>
     </row>
-    <row r="83" spans="1:16" hidden="1">
+    <row r="83" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P83" s="32"/>
     </row>
-    <row r="84" spans="1:16" hidden="1">
+    <row r="84" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P84" s="32"/>
     </row>
-    <row r="85" spans="1:16" hidden="1">
+    <row r="85" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P85" s="32"/>
     </row>
-    <row r="86" spans="1:16" hidden="1">
+    <row r="86" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P86" s="32"/>
     </row>
-    <row r="87" spans="1:16" hidden="1">
+    <row r="87" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>92</v>
       </c>
       <c r="P87" s="32"/>
     </row>
-    <row r="88" spans="1:16" hidden="1">
+    <row r="88" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>93</v>
       </c>
       <c r="P88" s="32"/>
     </row>
-    <row r="89" spans="1:16" hidden="1">
+    <row r="89" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>94</v>
       </c>
       <c r="P89" s="32"/>
     </row>
-    <row r="90" spans="1:16" hidden="1">
+    <row r="90" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>95</v>
       </c>
       <c r="P90" s="32"/>
     </row>
-    <row r="91" spans="1:16" hidden="1">
+    <row r="91" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>96</v>
       </c>
       <c r="P91" s="32"/>
     </row>
-    <row r="92" spans="1:16" hidden="1">
+    <row r="92" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>97</v>
       </c>
       <c r="P92" s="32"/>
     </row>
-    <row r="93" spans="1:16" hidden="1">
+    <row r="93" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="P93" s="32"/>
     </row>
-    <row r="94" spans="1:16" hidden="1">
+    <row r="94" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>98</v>
       </c>
       <c r="P94" s="32"/>
     </row>
-    <row r="95" spans="1:16" hidden="1">
+    <row r="95" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>100</v>
       </c>
       <c r="P95" s="32"/>
     </row>
-    <row r="96" spans="1:16" hidden="1">
+    <row r="96" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>101</v>
       </c>
       <c r="P96" s="32"/>
     </row>
-    <row r="97" spans="1:16" hidden="1">
+    <row r="97" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>102</v>
       </c>
       <c r="P97" s="32"/>
     </row>
-    <row r="98" spans="1:16" hidden="1">
+    <row r="98" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>103</v>
       </c>
       <c r="P98" s="32"/>
     </row>
-    <row r="99" spans="1:16" hidden="1">
+    <row r="99" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>104</v>
       </c>
       <c r="P99" s="32"/>
     </row>
-    <row r="100" spans="1:16" hidden="1">
+    <row r="100" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>105</v>
       </c>
       <c r="P100" s="32"/>
     </row>
-    <row r="101" spans="1:16" hidden="1">
+    <row r="101" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>106</v>
       </c>
       <c r="P101" s="32"/>
     </row>
-    <row r="102" spans="1:16" hidden="1">
+    <row r="102" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>65</v>
       </c>
       <c r="P102" s="32"/>
     </row>
-    <row r="103" spans="1:16" hidden="1">
+    <row r="103" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>66</v>
       </c>
       <c r="P103" s="32"/>
     </row>
-    <row r="104" spans="1:16" hidden="1">
+    <row r="104" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>67</v>
       </c>
       <c r="P104" s="32"/>
     </row>
-    <row r="105" spans="1:16" hidden="1">
+    <row r="105" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>68</v>
       </c>
       <c r="P105" s="32"/>
     </row>
-    <row r="106" spans="1:16" hidden="1">
+    <row r="106" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>69</v>
       </c>
       <c r="P106" s="32"/>
     </row>
-    <row r="107" spans="1:16" hidden="1">
+    <row r="107" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>70</v>
       </c>
       <c r="P107" s="32"/>
     </row>
-    <row r="108" spans="1:16" hidden="1">
+    <row r="108" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>71</v>
       </c>
       <c r="P108" s="32"/>
     </row>
-    <row r="109" spans="1:16" hidden="1">
+    <row r="109" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>72</v>
       </c>
       <c r="P109" s="32"/>
     </row>
-    <row r="110" spans="1:16" hidden="1">
+    <row r="110" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>73</v>
       </c>
       <c r="P110" s="32"/>
     </row>
-    <row r="111" spans="1:16" hidden="1">
+    <row r="111" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>74</v>
       </c>
       <c r="P111" s="32"/>
     </row>
-    <row r="112" spans="1:16" hidden="1">
+    <row r="112" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>75</v>
       </c>
       <c r="P112" s="32"/>
     </row>
-    <row r="113" spans="1:16" hidden="1">
+    <row r="113" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>76</v>
       </c>
       <c r="P113" s="32"/>
     </row>
-    <row r="114" spans="1:16" hidden="1">
+    <row r="114" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>77</v>
       </c>
       <c r="P114" s="32"/>
     </row>
-    <row r="115" spans="1:16" hidden="1">
+    <row r="115" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>78</v>
       </c>
       <c r="P115" s="32"/>
     </row>
-    <row r="116" spans="1:16" hidden="1">
+    <row r="116" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>79</v>
       </c>
       <c r="P116" s="32"/>
     </row>
-    <row r="117" spans="1:16" hidden="1">
+    <row r="117" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>80</v>
       </c>
       <c r="P117" s="32"/>
     </row>
-    <row r="118" spans="1:16" hidden="1">
+    <row r="118" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>81</v>
       </c>
       <c r="P118" s="32"/>
     </row>
-    <row r="119" spans="1:16" hidden="1">
+    <row r="119" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>82</v>
       </c>
       <c r="P119" s="32"/>
     </row>
-    <row r="120" spans="1:16" hidden="1">
+    <row r="120" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>83</v>
       </c>
       <c r="P120" s="32"/>
     </row>
-    <row r="121" spans="1:16" hidden="1">
+    <row r="121" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>84</v>
       </c>
       <c r="P121" s="32"/>
     </row>
-    <row r="122" spans="1:16" hidden="1">
+    <row r="122" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>116</v>
       </c>
       <c r="P122" s="32"/>
     </row>
-    <row r="123" spans="1:16" hidden="1">
+    <row r="123" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>115</v>
       </c>
       <c r="P123" s="32"/>
     </row>
-    <row r="124" spans="1:16" hidden="1">
+    <row r="124" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P124" s="32"/>
     </row>
-    <row r="125" spans="1:16" hidden="1">
+    <row r="125" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P125" s="32"/>
     </row>
-    <row r="126" spans="1:16" hidden="1">
+    <row r="126" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P126" s="32"/>
     </row>
-    <row r="127" spans="1:16" hidden="1">
+    <row r="127" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P127" s="32"/>
     </row>
-    <row r="128" spans="1:16" hidden="1">
+    <row r="128" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P128" s="32"/>
     </row>
-    <row r="129" spans="16:16" hidden="1">
+    <row r="129" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P129" s="32"/>
     </row>
-    <row r="130" spans="16:16" hidden="1">
+    <row r="130" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P130" s="32"/>
     </row>
-    <row r="131" spans="16:16" hidden="1">
+    <row r="131" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P131" s="32"/>
     </row>
-    <row r="132" spans="16:16" hidden="1">
+    <row r="132" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P132" s="32"/>
     </row>
-    <row r="133" spans="16:16" hidden="1">
+    <row r="133" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P133" s="32"/>
     </row>
-    <row r="134" spans="16:16" hidden="1">
+    <row r="134" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P134" s="32"/>
     </row>
-    <row r="135" spans="16:16" hidden="1">
+    <row r="135" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P135" s="32"/>
     </row>
-    <row r="136" spans="16:16" hidden="1">
+    <row r="136" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P136" s="32"/>
     </row>
-    <row r="137" spans="16:16" hidden="1">
+    <row r="137" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P137" s="32"/>
     </row>
-    <row r="138" spans="16:16" hidden="1">
+    <row r="138" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P138" s="32"/>
     </row>
-    <row r="139" spans="16:16" hidden="1">
+    <row r="139" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P139" s="32"/>
     </row>
-    <row r="140" spans="16:16" hidden="1">
+    <row r="140" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P140" s="32"/>
     </row>
-    <row r="141" spans="16:16" hidden="1">
+    <row r="141" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P141" s="32"/>
     </row>
-    <row r="142" spans="16:16" hidden="1">
+    <row r="142" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P142" s="32"/>
     </row>
-    <row r="143" spans="16:16" hidden="1">
+    <row r="143" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P143" s="32"/>
     </row>
-    <row r="144" spans="16:16" hidden="1">
+    <row r="144" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P144" s="32"/>
     </row>
-    <row r="145" spans="16:16" hidden="1">
+    <row r="145" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P145" s="32"/>
     </row>
-    <row r="146" spans="16:16" hidden="1">
+    <row r="146" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P146" s="32"/>
     </row>
-    <row r="147" spans="16:16" hidden="1">
+    <row r="147" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P147" s="32"/>
     </row>
-    <row r="148" spans="16:16" hidden="1">
+    <row r="148" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P148" s="32"/>
     </row>
-    <row r="149" spans="16:16" hidden="1">
+    <row r="149" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P149" s="32"/>
     </row>
-    <row r="150" spans="16:16" hidden="1">
+    <row r="150" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P150" s="32"/>
     </row>
-    <row r="151" spans="16:16" hidden="1">
+    <row r="151" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P151" s="32"/>
     </row>
-    <row r="152" spans="16:16" hidden="1">
+    <row r="152" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P152" s="32"/>
     </row>
-    <row r="153" spans="16:16" hidden="1">
+    <row r="153" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P153" s="32"/>
     </row>
-    <row r="154" spans="16:16" hidden="1">
+    <row r="154" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P154" s="32"/>
     </row>
-    <row r="155" spans="16:16" hidden="1">
+    <row r="155" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P155" s="32"/>
     </row>
-    <row r="156" spans="16:16" hidden="1">
+    <row r="156" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P156" s="32"/>
     </row>
-    <row r="157" spans="16:16" hidden="1">
+    <row r="157" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P157" s="32"/>
     </row>
-    <row r="158" spans="16:16" hidden="1">
+    <row r="158" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P158" s="32"/>
     </row>
-    <row r="159" spans="16:16" hidden="1">
+    <row r="159" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P159" s="32"/>
     </row>
-    <row r="160" spans="16:16" hidden="1">
+    <row r="160" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P160" s="32"/>
     </row>
-    <row r="161" spans="16:16" hidden="1">
+    <row r="161" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P161" s="32"/>
     </row>
-    <row r="162" spans="16:16" hidden="1">
+    <row r="162" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P162" s="32"/>
     </row>
-    <row r="163" spans="16:16" hidden="1">
+    <row r="163" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P163" s="32"/>
     </row>
-    <row r="164" spans="16:16" hidden="1">
+    <row r="164" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P164" s="32"/>
     </row>
-    <row r="165" spans="16:16" hidden="1">
+    <row r="165" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P165" s="32"/>
     </row>
-    <row r="166" spans="16:16" hidden="1">
+    <row r="166" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P166" s="32"/>
     </row>
-    <row r="167" spans="16:16" hidden="1">
+    <row r="167" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P167" s="32"/>
     </row>
-    <row r="168" spans="16:16" hidden="1">
+    <row r="168" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P168" s="32"/>
     </row>
-    <row r="169" spans="16:16" hidden="1">
+    <row r="169" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P169" s="32"/>
     </row>
-    <row r="170" spans="16:16" hidden="1">
+    <row r="170" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P170" s="32"/>
     </row>
-    <row r="171" spans="16:16" hidden="1">
+    <row r="171" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P171" s="32"/>
     </row>
-    <row r="172" spans="16:16" hidden="1">
+    <row r="172" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P172" s="32"/>
     </row>
-    <row r="173" spans="16:16" hidden="1">
+    <row r="173" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P173" s="32"/>
     </row>
-    <row r="174" spans="16:16" hidden="1">
+    <row r="174" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P174" s="32"/>
     </row>
-    <row r="175" spans="16:16" hidden="1">
+    <row r="175" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P175" s="32"/>
     </row>
-    <row r="176" spans="16:16" hidden="1">
+    <row r="176" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P176" s="32"/>
     </row>
-    <row r="177" spans="16:16" hidden="1">
+    <row r="177" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P177" s="32"/>
     </row>
-    <row r="178" spans="16:16" hidden="1">
+    <row r="178" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P178" s="32"/>
     </row>
-    <row r="179" spans="16:16" hidden="1">
+    <row r="179" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P179" s="32"/>
     </row>
-    <row r="180" spans="16:16" hidden="1">
+    <row r="180" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P180" s="32"/>
     </row>
-    <row r="181" spans="16:16" hidden="1">
+    <row r="181" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P181" s="32"/>
     </row>
-    <row r="182" spans="16:16" hidden="1">
+    <row r="182" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P182" s="32"/>
     </row>
-    <row r="183" spans="16:16" hidden="1">
+    <row r="183" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P183" s="32"/>
     </row>
-    <row r="184" spans="16:16" hidden="1">
+    <row r="184" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P184" s="32"/>
     </row>
-    <row r="185" spans="16:16" hidden="1">
+    <row r="185" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P185" s="32"/>
     </row>
-    <row r="186" spans="16:16" hidden="1">
+    <row r="186" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P186" s="32"/>
     </row>
-    <row r="187" spans="16:16" hidden="1">
+    <row r="187" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P187" s="32"/>
     </row>
-    <row r="188" spans="16:16" hidden="1">
+    <row r="188" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P188" s="32"/>
     </row>
-    <row r="189" spans="16:16" hidden="1">
+    <row r="189" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P189" s="32"/>
     </row>
-    <row r="190" spans="16:16" hidden="1">
+    <row r="190" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P190" s="32"/>
     </row>
-    <row r="191" spans="16:16" hidden="1">
+    <row r="191" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P191" s="32"/>
     </row>
-    <row r="192" spans="16:16" hidden="1">
+    <row r="192" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P192" s="32"/>
     </row>
-    <row r="193" spans="16:16" hidden="1">
+    <row r="193" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P193" s="32"/>
     </row>
-    <row r="194" spans="16:16" hidden="1">
+    <row r="194" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P194" s="32"/>
     </row>
-    <row r="195" spans="16:16" hidden="1">
+    <row r="195" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P195" s="32"/>
     </row>
-    <row r="196" spans="16:16" hidden="1">
+    <row r="196" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P196" s="32"/>
     </row>
-    <row r="197" spans="16:16" hidden="1">
+    <row r="197" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P197" s="32"/>
     </row>
-    <row r="198" spans="16:16" hidden="1">
+    <row r="198" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P198" s="32"/>
     </row>
-    <row r="199" spans="16:16" hidden="1">
+    <row r="199" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P199" s="32"/>
     </row>
-    <row r="200" spans="16:16" hidden="1">
+    <row r="200" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P200" s="32"/>
     </row>
-    <row r="201" spans="16:16" hidden="1">
+    <row r="201" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P201" s="32"/>
     </row>
-    <row r="202" spans="16:16" hidden="1">
+    <row r="202" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P202" s="32"/>
     </row>
-    <row r="203" spans="16:16" hidden="1">
+    <row r="203" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P203" s="32"/>
     </row>
-    <row r="204" spans="16:16" hidden="1">
+    <row r="204" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P204" s="32"/>
     </row>
-    <row r="205" spans="16:16" hidden="1">
+    <row r="205" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P205" s="32"/>
     </row>
-    <row r="206" spans="16:16" hidden="1">
+    <row r="206" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P206" s="32"/>
     </row>
-    <row r="207" spans="16:16" hidden="1">
+    <row r="207" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P207" s="32"/>
     </row>
-    <row r="208" spans="16:16" hidden="1">
+    <row r="208" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P208" s="32"/>
     </row>
-    <row r="209" spans="16:16" hidden="1">
+    <row r="209" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P209" s="32"/>
     </row>
-    <row r="210" spans="16:16" hidden="1">
+    <row r="210" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P210" s="32"/>
     </row>
-    <row r="211" spans="16:16" hidden="1">
+    <row r="211" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P211" s="32"/>
     </row>
-    <row r="212" spans="16:16" hidden="1">
+    <row r="212" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P212" s="32"/>
     </row>
-    <row r="213" spans="16:16" hidden="1">
+    <row r="213" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P213" s="32"/>
     </row>
-    <row r="214" spans="16:16" hidden="1">
+    <row r="214" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P214" s="32"/>
     </row>
-    <row r="215" spans="16:16" hidden="1">
+    <row r="215" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P215" s="32"/>
     </row>
-    <row r="216" spans="16:16" hidden="1">
+    <row r="216" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P216" s="32"/>
     </row>
-    <row r="217" spans="16:16" hidden="1">
+    <row r="217" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P217" s="32"/>
     </row>
-    <row r="218" spans="16:16" hidden="1">
+    <row r="218" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P218" s="32"/>
     </row>
-    <row r="219" spans="16:16" hidden="1">
+    <row r="219" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P219" s="32"/>
     </row>
-    <row r="220" spans="16:16" hidden="1">
+    <row r="220" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P220" s="32"/>
     </row>
-    <row r="221" spans="16:16" hidden="1">
+    <row r="221" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P221" s="32"/>
     </row>
-    <row r="222" spans="16:16" hidden="1">
+    <row r="222" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P222" s="32"/>
     </row>
-    <row r="223" spans="16:16" hidden="1">
+    <row r="223" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P223" s="32"/>
     </row>
-    <row r="224" spans="16:16" hidden="1">
+    <row r="224" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P224" s="32"/>
     </row>
-    <row r="225" spans="16:16" hidden="1">
+    <row r="225" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P225" s="32"/>
     </row>
-    <row r="226" spans="16:16" hidden="1">
+    <row r="226" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P226" s="32"/>
     </row>
-    <row r="227" spans="16:16" hidden="1">
+    <row r="227" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P227" s="32"/>
     </row>
-    <row r="228" spans="16:16" hidden="1">
+    <row r="228" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P228" s="32"/>
     </row>
-    <row r="229" spans="16:16" hidden="1">
+    <row r="229" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P229" s="32"/>
     </row>
-    <row r="230" spans="16:16" hidden="1">
+    <row r="230" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P230" s="32"/>
     </row>
-    <row r="231" spans="16:16" hidden="1">
+    <row r="231" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P231" s="32"/>
     </row>
-    <row r="232" spans="16:16" hidden="1">
+    <row r="232" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P232" s="32"/>
     </row>
-    <row r="233" spans="16:16" hidden="1">
+    <row r="233" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P233" s="32"/>
     </row>
-    <row r="234" spans="16:16" hidden="1">
+    <row r="234" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P234" s="32"/>
     </row>
-    <row r="235" spans="16:16" hidden="1">
+    <row r="235" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P235" s="32"/>
     </row>
-    <row r="236" spans="16:16" hidden="1">
+    <row r="236" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P236" s="32"/>
     </row>
-    <row r="237" spans="16:16" hidden="1">
+    <row r="237" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P237" s="32"/>
     </row>
-    <row r="238" spans="16:16" hidden="1">
+    <row r="238" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P238" s="32"/>
     </row>
-    <row r="239" spans="16:16" hidden="1">
+    <row r="239" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P239" s="32"/>
     </row>
-    <row r="240" spans="16:16" hidden="1">
+    <row r="240" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P240" s="32"/>
     </row>
-    <row r="241" spans="16:16" hidden="1">
+    <row r="241" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P241" s="32"/>
     </row>
-    <row r="242" spans="16:16" hidden="1">
+    <row r="242" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P242" s="32"/>
     </row>
-    <row r="243" spans="16:16" hidden="1">
+    <row r="243" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P243" s="32"/>
     </row>
-    <row r="244" spans="16:16" hidden="1">
+    <row r="244" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P244" s="32"/>
     </row>
-    <row r="245" spans="16:16" hidden="1">
+    <row r="245" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P245" s="32"/>
     </row>
-    <row r="246" spans="16:16" hidden="1">
+    <row r="246" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P246" s="32"/>
     </row>
-    <row r="247" spans="16:16" hidden="1">
+    <row r="247" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P247" s="32"/>
     </row>
-    <row r="248" spans="16:16" hidden="1">
+    <row r="248" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P248" s="32"/>
     </row>
-    <row r="249" spans="16:16" hidden="1">
+    <row r="249" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P249" s="32"/>
     </row>
-    <row r="250" spans="16:16" hidden="1">
+    <row r="250" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P250" s="32"/>
     </row>
-    <row r="251" spans="16:16" hidden="1">
+    <row r="251" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P251" s="32"/>
     </row>
-    <row r="252" spans="16:16" hidden="1">
+    <row r="252" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P252" s="32"/>
     </row>
-    <row r="253" spans="16:16" hidden="1">
+    <row r="253" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P253" s="32"/>
     </row>
-    <row r="254" spans="16:16" hidden="1">
+    <row r="254" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P254" s="32"/>
     </row>
-    <row r="255" spans="16:16" hidden="1">
+    <row r="255" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P255" s="32"/>
     </row>
-    <row r="256" spans="16:16" hidden="1">
+    <row r="256" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P256" s="32"/>
     </row>
-    <row r="257" spans="16:16" hidden="1">
+    <row r="257" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P257" s="32"/>
     </row>
-    <row r="258" spans="16:16" hidden="1">
+    <row r="258" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P258" s="32"/>
     </row>
-    <row r="259" spans="16:16" hidden="1">
+    <row r="259" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P259" s="32"/>
     </row>
-    <row r="260" spans="16:16" hidden="1">
+    <row r="260" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P260" s="32"/>
     </row>
-    <row r="261" spans="16:16" hidden="1">
+    <row r="261" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P261" s="32"/>
     </row>
-    <row r="262" spans="16:16" hidden="1">
+    <row r="262" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P262" s="32"/>
     </row>
-    <row r="263" spans="16:16" hidden="1">
+    <row r="263" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P263" s="32"/>
     </row>
-    <row r="264" spans="16:16" hidden="1">
+    <row r="264" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P264" s="32"/>
     </row>
-    <row r="265" spans="16:16" hidden="1">
+    <row r="265" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P265" s="32"/>
     </row>
-    <row r="266" spans="16:16" hidden="1">
+    <row r="266" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P266" s="32"/>
     </row>
-    <row r="267" spans="16:16" hidden="1">
+    <row r="267" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P267" s="32"/>
     </row>
-    <row r="268" spans="16:16" hidden="1">
+    <row r="268" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P268" s="32"/>
     </row>
-    <row r="269" spans="16:16" hidden="1">
+    <row r="269" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P269" s="32"/>
     </row>
-    <row r="270" spans="16:16" hidden="1">
+    <row r="270" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P270" s="32"/>
     </row>
-    <row r="271" spans="16:16" hidden="1">
+    <row r="271" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P271" s="32"/>
     </row>
-    <row r="272" spans="16:16" hidden="1">
+    <row r="272" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P272" s="32"/>
     </row>
-    <row r="273" spans="16:16" hidden="1">
+    <row r="273" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P273" s="32"/>
     </row>
-    <row r="274" spans="16:16" hidden="1">
+    <row r="274" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P274" s="32"/>
     </row>
-    <row r="275" spans="16:16" hidden="1">
+    <row r="275" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P275" s="32"/>
     </row>
-    <row r="276" spans="16:16" hidden="1">
+    <row r="276" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P276" s="32"/>
     </row>
-    <row r="277" spans="16:16" hidden="1">
+    <row r="277" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P277" s="32"/>
     </row>
-    <row r="278" spans="16:16" hidden="1">
+    <row r="278" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P278" s="32"/>
     </row>
-    <row r="279" spans="16:16" hidden="1">
+    <row r="279" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P279" s="32"/>
     </row>
-    <row r="280" spans="16:16" hidden="1">
+    <row r="280" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P280" s="32"/>
     </row>
-    <row r="281" spans="16:16" hidden="1">
+    <row r="281" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P281" s="32"/>
     </row>
-    <row r="282" spans="16:16" hidden="1">
+    <row r="282" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P282" s="32"/>
     </row>
-    <row r="283" spans="16:16" hidden="1">
+    <row r="283" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P283" s="32"/>
     </row>
-    <row r="284" spans="16:16" hidden="1">
+    <row r="284" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P284" s="32"/>
     </row>
-    <row r="285" spans="16:16" hidden="1">
+    <row r="285" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P285" s="32"/>
     </row>
-    <row r="286" spans="16:16" hidden="1">
+    <row r="286" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P286" s="32"/>
     </row>
-    <row r="287" spans="16:16">
+    <row r="287" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P287" s="32"/>
     </row>
-    <row r="288" spans="16:16">
+    <row r="288" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P288" s="32"/>
     </row>
-    <row r="289" spans="16:16">
+    <row r="289" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P289" s="32"/>
     </row>
-    <row r="290" spans="16:16">
+    <row r="290" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P290" s="32"/>
     </row>
-    <row r="291" spans="16:16">
+    <row r="291" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P291" s="32"/>
     </row>
-    <row r="292" spans="16:16">
+    <row r="292" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P292" s="32"/>
     </row>
   </sheetData>
@@ -5235,12 +5242,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5255,6 +5256,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5308,27 +5315,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" style="2"/>
     <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="69.796875" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5345,7 +5352,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -5369,7 +5376,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -5388,7 +5395,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -5407,7 +5414,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5423,7 +5430,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5440,7 +5447,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5457,7 +5464,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5472,7 +5479,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5487,7 +5494,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5502,7 +5509,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5517,7 +5524,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5532,7 +5539,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5547,7 +5554,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5562,7 +5569,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5577,7 +5584,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5592,7 +5599,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -5606,7 +5613,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -5620,7 +5627,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -5634,7 +5641,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -5648,7 +5655,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5663,7 +5670,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5678,7 +5685,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5693,7 +5700,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5708,7 +5715,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5723,7 +5730,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5738,7 +5745,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5753,7 +5760,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5768,7 +5775,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5783,7 +5790,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5798,7 +5805,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5813,7 +5820,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5828,7 +5835,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5843,7 +5850,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5858,7 +5865,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5873,7 +5880,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5888,7 +5895,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5903,7 +5910,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5918,7 +5925,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5933,7 +5940,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5948,7 +5955,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5963,7 +5970,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5978,7 +5985,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5993,7 +6000,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -6008,7 +6015,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -6023,7 +6030,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -6038,7 +6045,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -6053,7 +6060,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -6068,7 +6075,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -6080,7 +6087,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -6092,7 +6099,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -6105,7 +6112,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -6118,7 +6125,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -6131,7 +6138,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -6144,7 +6151,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -6157,7 +6164,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -6170,7 +6177,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -6183,7 +6190,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -6196,7 +6203,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -6209,7 +6216,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -6222,7 +6229,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -6235,7 +6242,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6248,7 +6255,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6261,7 +6268,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6274,7 +6281,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6287,7 +6294,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -6300,7 +6307,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -6313,7 +6320,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -6326,7 +6333,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -6339,7 +6346,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -6352,7 +6359,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6366,7 +6373,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6380,7 +6387,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6394,7 +6401,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6408,7 +6415,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6422,7 +6429,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6436,7 +6443,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6450,7 +6457,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6464,7 +6471,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6478,7 +6485,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6492,7 +6499,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6506,7 +6513,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6520,7 +6527,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6534,7 +6541,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -6548,7 +6555,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -6562,7 +6569,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -6576,7 +6583,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6590,7 +6597,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6604,7 +6611,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6618,7 +6625,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6632,7 +6639,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6646,7 +6653,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6660,7 +6667,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6674,7 +6681,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6688,7 +6695,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6702,7 +6709,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6716,7 +6723,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6730,7 +6737,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6744,7 +6751,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6758,7 +6765,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6772,7 +6779,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6786,7 +6793,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6800,7 +6807,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6814,7 +6821,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6828,7 +6835,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6842,7 +6849,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6856,7 +6863,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6870,7 +6877,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6884,7 +6891,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6898,7 +6905,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6912,7 +6919,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6926,7 +6933,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6940,7 +6947,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6954,7 +6961,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6968,7 +6975,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6982,7 +6989,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6996,7 +7003,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -7010,7 +7017,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -7024,7 +7031,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -7038,7 +7045,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -7052,7 +7059,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -7066,7 +7073,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -7080,7 +7087,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -7094,7 +7101,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -7108,7 +7115,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -7122,7 +7129,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -7136,7 +7143,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7150,7 +7157,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7164,7 +7171,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7178,7 +7185,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7192,7 +7199,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7206,7 +7213,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7220,7 +7227,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado10/guion05/Escaleta_LE_10_05.xlsx
+++ b/fuentes/contenidos/grado10/guion05/Escaleta_LE_10_05.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado10\guion05\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25358" windowHeight="14003"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="253">
   <si>
     <t>Asignatura</t>
   </si>
@@ -485,9 +480,6 @@
   </si>
   <si>
     <t>Vídeo que presenta la Residencia de Estudiantes, cuna de la generación del 27, y cómo repercute la situación política y social de España en ella</t>
-  </si>
-  <si>
-    <t>Contexto cultural</t>
   </si>
   <si>
     <t xml:space="preserve">Los géneros, las obras y los autores </t>
@@ -797,7 +789,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,15 +850,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,12 +924,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1013,7 +992,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1149,8 +1128,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1231,41 +1212,22 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1307,8 +1269,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="137">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1376,6 +1356,7 @@
     <cellStyle name="Hipervínculo" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1443,6 +1424,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1747,126 +1729,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.06640625" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" customWidth="1"/>
-    <col min="4" max="4" width="51.46484375" customWidth="1"/>
-    <col min="5" max="5" width="45.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
+    <col min="5" max="5" width="45.83203125" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.46484375" customWidth="1"/>
+    <col min="7" max="7" width="30.5" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.796875" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.46484375" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
     <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="37.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.46484375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="37.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.59765625" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
     <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.19921875" customWidth="1"/>
+    <col min="20" max="20" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="25" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:21" s="25" customFormat="1" ht="15.5" customHeight="1">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="55" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="25" customFormat="1" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="52"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="54"/>
+    <row r="2" spans="1:21" s="25" customFormat="1" ht="15.5" customHeight="1" thickBot="1">
+      <c r="A2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="42"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="56"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.5" customHeight="1" thickTop="1">
       <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
@@ -1876,7 +1858,7 @@
       <c r="C3" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="17"/>
@@ -1902,7 +1884,7 @@
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
       <c r="O3" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P3" s="29" t="s">
         <v>19</v>
@@ -1923,7 +1905,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:21" ht="15.5" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
@@ -1933,7 +1915,7 @@
       <c r="C4" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>124</v>
       </c>
       <c r="E4" s="13"/>
@@ -1961,7 +1943,7 @@
         <v>32</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P4" s="31" t="s">
         <v>19</v>
@@ -1982,7 +1964,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" ht="15.5" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
@@ -1992,7 +1974,7 @@
       <c r="C5" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>124</v>
       </c>
       <c r="E5" s="13"/>
@@ -2020,7 +2002,7 @@
         <v>28</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>19</v>
@@ -2041,7 +2023,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:21" ht="15.5" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
@@ -2051,7 +2033,7 @@
       <c r="C6" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>124</v>
       </c>
       <c r="E6" s="13"/>
@@ -2079,7 +2061,7 @@
         <v>121</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P6" s="31" t="s">
         <v>19</v>
@@ -2100,7 +2082,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21" ht="15.5" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
@@ -2140,7 +2122,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P7" s="31" t="s">
         <v>19</v>
@@ -2161,7 +2143,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:21" ht="15.5" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
@@ -2177,8 +2159,8 @@
       <c r="E8" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="36" t="s">
-        <v>152</v>
+      <c r="F8" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>150</v>
@@ -2201,7 +2183,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P8" s="31" t="s">
         <v>19</v>
@@ -2222,7 +2204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:21" ht="15.5" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
@@ -2236,13 +2218,13 @@
         <v>141</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>153</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>154</v>
       </c>
       <c r="H9" s="31">
         <v>7</v>
@@ -2251,7 +2233,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -2262,7 +2244,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>19</v>
@@ -2277,13 +2259,13 @@
         <v>142</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U9" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:21" ht="15.5" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
@@ -2297,13 +2279,13 @@
         <v>141</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" s="31">
         <v>8</v>
@@ -2312,7 +2294,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
@@ -2323,7 +2305,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P10" s="31" t="s">
         <v>19</v>
@@ -2338,13 +2320,13 @@
         <v>142</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U10" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:21" ht="15.5" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -2358,13 +2340,13 @@
         <v>141</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H11" s="31">
         <v>9</v>
@@ -2373,7 +2355,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2384,7 +2366,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>19</v>
@@ -2399,13 +2381,13 @@
         <v>126</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U11" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:21" ht="15.5" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
@@ -2419,13 +2401,13 @@
         <v>141</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="34" t="s">
         <v>157</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>158</v>
       </c>
       <c r="H12" s="31">
         <v>10</v>
@@ -2434,7 +2416,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2445,7 +2427,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P12" s="31" t="s">
         <v>19</v>
@@ -2460,13 +2442,13 @@
         <v>126</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" ht="15.5" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
@@ -2480,11 +2462,11 @@
         <v>141</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H13" s="31">
         <v>11</v>
@@ -2493,7 +2475,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2506,7 +2488,7 @@
         <v>121</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>19</v>
@@ -2521,13 +2503,13 @@
         <v>131</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U13" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:21" ht="15.5" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
@@ -2538,14 +2520,14 @@
         <v>123</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H14" s="31">
         <v>12</v>
@@ -2554,7 +2536,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2567,7 +2549,7 @@
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P14" s="31" t="s">
         <v>19</v>
@@ -2576,19 +2558,19 @@
         <v>6</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S14" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="T14" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="U14" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="U14" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="15" spans="1:21" ht="15.5" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
@@ -2599,16 +2581,16 @@
         <v>123</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>181</v>
+        <v>251</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H15" s="31">
         <v>13</v>
@@ -2617,7 +2599,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2630,7 +2612,7 @@
         <v>36</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>19</v>
@@ -2645,13 +2627,13 @@
         <v>131</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U15" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:21" ht="15.5" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>16</v>
       </c>
@@ -2662,14 +2644,14 @@
         <v>123</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H16" s="31">
         <v>14</v>
@@ -2678,7 +2660,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2691,7 +2673,7 @@
         <v>121</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P16" s="31" t="s">
         <v>19</v>
@@ -2706,13 +2688,13 @@
         <v>131</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U16" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" ht="15.5" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
@@ -2723,12 +2705,12 @@
         <v>123</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
       <c r="G17" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H17" s="31">
         <v>15</v>
@@ -2737,7 +2719,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2750,7 +2732,7 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>19</v>
@@ -2759,19 +2741,19 @@
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S17" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="S17" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="T17" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.5" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
@@ -2782,14 +2764,14 @@
         <v>123</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H18" s="31">
         <v>16</v>
@@ -2798,7 +2780,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2811,7 +2793,7 @@
         <v>27</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P18" s="31" t="s">
         <v>19</v>
@@ -2826,13 +2808,13 @@
         <v>131</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U18" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:21" ht="15.5" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>16</v>
       </c>
@@ -2843,14 +2825,14 @@
         <v>123</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H19" s="31">
         <v>17</v>
@@ -2859,7 +2841,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2872,7 +2854,7 @@
         <v>121</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P19" s="31" t="s">
         <v>19</v>
@@ -2887,13 +2869,13 @@
         <v>131</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U19" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" ht="15.5" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>16</v>
       </c>
@@ -2904,7 +2886,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
@@ -2918,7 +2900,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2931,7 +2913,7 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P20" s="31" t="s">
         <v>19</v>
@@ -2940,19 +2922,19 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="S20" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="T20" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.5" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>16</v>
       </c>
@@ -2963,14 +2945,14 @@
         <v>123</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H21" s="31">
         <v>19</v>
@@ -2979,7 +2961,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2992,7 +2974,7 @@
         <v>36</v>
       </c>
       <c r="O21" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P21" s="31" t="s">
         <v>19</v>
@@ -3007,13 +2989,13 @@
         <v>131</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:21" ht="15.5" customHeight="1">
       <c r="A22" s="16" t="s">
         <v>16</v>
       </c>
@@ -3024,14 +3006,14 @@
         <v>123</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H22" s="31">
         <v>20</v>
@@ -3040,7 +3022,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -3053,7 +3035,7 @@
         <v>121</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P22" s="31" t="s">
         <v>19</v>
@@ -3068,13 +3050,13 @@
         <v>131</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U22" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:21" ht="15.5" customHeight="1">
       <c r="A23" s="16" t="s">
         <v>16</v>
       </c>
@@ -3085,14 +3067,14 @@
         <v>123</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H23" s="31">
         <v>21</v>
@@ -3101,7 +3083,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -3114,7 +3096,7 @@
         <v>24</v>
       </c>
       <c r="O23" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>19</v>
@@ -3129,13 +3111,13 @@
         <v>131</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:21" ht="15.5" customHeight="1">
       <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
@@ -3146,14 +3128,14 @@
         <v>123</v>
       </c>
       <c r="D24" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>208</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H24" s="31">
         <v>22</v>
@@ -3162,7 +3144,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -3175,7 +3157,7 @@
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P24" s="31" t="s">
         <v>19</v>
@@ -3184,19 +3166,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="S24" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="T24" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.5" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>16</v>
       </c>
@@ -3207,14 +3189,14 @@
         <v>123</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H25" s="31">
         <v>23</v>
@@ -3223,7 +3205,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -3236,7 +3218,7 @@
         <v>121</v>
       </c>
       <c r="O25" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P25" s="31" t="s">
         <v>19</v>
@@ -3245,19 +3227,19 @@
         <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S25" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="T25" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="T25" s="12" t="s">
+      <c r="U25" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="U25" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="26" spans="1:21" ht="15.5" customHeight="1">
       <c r="A26" s="16" t="s">
         <v>16</v>
       </c>
@@ -3268,12 +3250,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H26" s="31">
         <v>24</v>
@@ -3282,7 +3264,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -3295,7 +3277,7 @@
         <v>120</v>
       </c>
       <c r="O26" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P26" s="31" t="s">
         <v>19</v>
@@ -3310,13 +3292,13 @@
         <v>131</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" ht="15.5" customHeight="1">
       <c r="A27" s="16" t="s">
         <v>16</v>
       </c>
@@ -3327,7 +3309,7 @@
         <v>123</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
@@ -3341,7 +3323,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -3361,7 +3343,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:21" ht="15.5" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>16</v>
       </c>
@@ -3372,12 +3354,12 @@
         <v>123</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H28" s="31">
         <v>26</v>
@@ -3386,7 +3368,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3399,7 +3381,7 @@
         <v>32</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P28" s="31" t="s">
         <v>19</v>
@@ -3414,13 +3396,13 @@
         <v>131</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:21" ht="15.5" customHeight="1">
       <c r="A29" s="16" t="s">
         <v>16</v>
       </c>
@@ -3431,7 +3413,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
@@ -3443,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3456,7 +3438,7 @@
         <v>52</v>
       </c>
       <c r="O29" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P29" s="31" t="s">
         <v>20</v>
@@ -3471,13 +3453,13 @@
         <v>131</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U29" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:21" ht="15.5" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -3500,7 +3482,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:21" ht="15.5" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -3523,7 +3505,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:21" ht="15.5" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -3546,7 +3528,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:21" ht="15.5" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -3569,7 +3551,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:21" ht="15.5" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -3592,7 +3574,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:21" ht="15.5" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3615,7 +3597,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:21" ht="15.5" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3638,7 +3620,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:21" ht="15.5" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3661,7 +3643,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:21" ht="15.5" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3684,7 +3666,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:21" ht="15.5" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3707,7 +3689,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:21" ht="15.5" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3730,7 +3712,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:21" ht="15.5" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3753,7 +3735,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:21" ht="15.5" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3776,7 +3758,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:21" ht="15.5" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3799,7 +3781,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:21" ht="15.5" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3822,7 +3804,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:21" ht="15.5" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3845,7 +3827,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:21" ht="15.5" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3868,7 +3850,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:21" ht="15.5" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3891,7 +3873,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:21" ht="15.5" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3914,7 +3896,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:21" ht="15.5" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3937,7 +3919,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:21" ht="15.5" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3960,7 +3942,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:21" ht="15.5" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3983,7 +3965,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:21" ht="15.5" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4006,7 +3988,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:21" ht="15.5" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4029,7 +4011,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:21" ht="15.5" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4052,7 +4034,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:21" ht="15.5" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4075,7 +4057,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:21" ht="15.5" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4098,7 +4080,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:21" ht="15.5" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4121,7 +4103,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:21" ht="15.5" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -4144,7 +4126,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:21" ht="15.5" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -4167,7 +4149,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:21" ht="15.5" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4190,7 +4172,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:21" ht="15.5" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4213,7 +4195,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:21" ht="15.5" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4236,7 +4218,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:21" ht="15.5" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4259,7 +4241,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:21" ht="15.5" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4282,7 +4264,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:21" ht="15.5" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4305,7 +4287,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:21" ht="15.5" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4328,7 +4310,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:21" ht="15.5" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4351,7 +4333,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:21" ht="15.5" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4374,7 +4356,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:21" ht="15.5" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4397,7 +4379,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:21" ht="15.5" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -4420,7 +4402,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:21" ht="15.5" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -4443,7 +4425,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="72" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:21" ht="15.5" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -4466,775 +4448,775 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="73" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" ht="15.5" customHeight="1">
       <c r="P73" s="32"/>
     </row>
-    <row r="74" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" ht="15.5" customHeight="1">
       <c r="P74" s="32"/>
     </row>
-    <row r="75" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" ht="15.5" customHeight="1">
       <c r="P75" s="32"/>
     </row>
-    <row r="76" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" ht="15.5" customHeight="1">
       <c r="P76" s="32"/>
     </row>
-    <row r="77" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" ht="15.5" customHeight="1">
       <c r="P77" s="32"/>
     </row>
-    <row r="78" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" ht="15.5" customHeight="1">
       <c r="P78" s="32"/>
     </row>
-    <row r="79" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" ht="15.5" customHeight="1">
       <c r="P79" s="32"/>
     </row>
-    <row r="80" spans="1:21" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" ht="15.5" customHeight="1">
       <c r="P80" s="32"/>
     </row>
-    <row r="81" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:16" ht="15.5" customHeight="1">
       <c r="P81" s="32"/>
     </row>
-    <row r="82" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:16" ht="15.5" customHeight="1">
       <c r="P82" s="32"/>
     </row>
-    <row r="83" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:16" ht="15.5" customHeight="1">
       <c r="P83" s="32"/>
     </row>
-    <row r="84" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:16" ht="15.5" customHeight="1">
       <c r="P84" s="32"/>
     </row>
-    <row r="85" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:16" ht="15.5" customHeight="1">
       <c r="P85" s="32"/>
     </row>
-    <row r="86" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:16" ht="15.5" customHeight="1">
       <c r="P86" s="32"/>
     </row>
-    <row r="87" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:16" ht="15.5" customHeight="1">
       <c r="A87" t="s">
         <v>92</v>
       </c>
       <c r="P87" s="32"/>
     </row>
-    <row r="88" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:16" ht="15.5" customHeight="1">
       <c r="A88" t="s">
         <v>93</v>
       </c>
       <c r="P88" s="32"/>
     </row>
-    <row r="89" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:16" ht="15.5" customHeight="1">
       <c r="A89" t="s">
         <v>94</v>
       </c>
       <c r="P89" s="32"/>
     </row>
-    <row r="90" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:16" ht="15.5" customHeight="1">
       <c r="A90" t="s">
         <v>95</v>
       </c>
       <c r="P90" s="32"/>
     </row>
-    <row r="91" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:16" ht="15.5" customHeight="1">
       <c r="A91" t="s">
         <v>96</v>
       </c>
       <c r="P91" s="32"/>
     </row>
-    <row r="92" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:16" ht="15.5" customHeight="1">
       <c r="A92" t="s">
         <v>97</v>
       </c>
       <c r="P92" s="32"/>
     </row>
-    <row r="93" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:16" ht="15.5" customHeight="1">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="P93" s="32"/>
     </row>
-    <row r="94" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:16" ht="15.5" customHeight="1">
       <c r="A94" t="s">
         <v>98</v>
       </c>
       <c r="P94" s="32"/>
     </row>
-    <row r="95" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:16" ht="15.5" customHeight="1">
       <c r="A95" t="s">
         <v>100</v>
       </c>
       <c r="P95" s="32"/>
     </row>
-    <row r="96" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:16" ht="15.5" customHeight="1">
       <c r="A96" t="s">
         <v>101</v>
       </c>
       <c r="P96" s="32"/>
     </row>
-    <row r="97" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:16" ht="15.5" customHeight="1">
       <c r="A97" t="s">
         <v>102</v>
       </c>
       <c r="P97" s="32"/>
     </row>
-    <row r="98" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:16" ht="15.5" customHeight="1">
       <c r="A98" t="s">
         <v>103</v>
       </c>
       <c r="P98" s="32"/>
     </row>
-    <row r="99" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:16" ht="15.5" customHeight="1">
       <c r="A99" t="s">
         <v>104</v>
       </c>
       <c r="P99" s="32"/>
     </row>
-    <row r="100" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:16" ht="15.5" customHeight="1">
       <c r="A100" t="s">
         <v>105</v>
       </c>
       <c r="P100" s="32"/>
     </row>
-    <row r="101" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:16" ht="15.5" customHeight="1">
       <c r="A101" t="s">
         <v>106</v>
       </c>
       <c r="P101" s="32"/>
     </row>
-    <row r="102" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:16" ht="15.5" customHeight="1">
       <c r="A102" t="s">
         <v>65</v>
       </c>
       <c r="P102" s="32"/>
     </row>
-    <row r="103" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:16" ht="15.5" customHeight="1">
       <c r="A103" t="s">
         <v>66</v>
       </c>
       <c r="P103" s="32"/>
     </row>
-    <row r="104" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:16" ht="15.5" customHeight="1">
       <c r="A104" t="s">
         <v>67</v>
       </c>
       <c r="P104" s="32"/>
     </row>
-    <row r="105" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:16" ht="15.5" customHeight="1">
       <c r="A105" t="s">
         <v>68</v>
       </c>
       <c r="P105" s="32"/>
     </row>
-    <row r="106" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:16" ht="15.5" customHeight="1">
       <c r="A106" t="s">
         <v>69</v>
       </c>
       <c r="P106" s="32"/>
     </row>
-    <row r="107" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:16" ht="15.5" customHeight="1">
       <c r="A107" t="s">
         <v>70</v>
       </c>
       <c r="P107" s="32"/>
     </row>
-    <row r="108" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:16" ht="15.5" customHeight="1">
       <c r="A108" t="s">
         <v>71</v>
       </c>
       <c r="P108" s="32"/>
     </row>
-    <row r="109" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:16" ht="15.5" customHeight="1">
       <c r="A109" t="s">
         <v>72</v>
       </c>
       <c r="P109" s="32"/>
     </row>
-    <row r="110" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:16" ht="15.5" customHeight="1">
       <c r="A110" t="s">
         <v>73</v>
       </c>
       <c r="P110" s="32"/>
     </row>
-    <row r="111" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:16" ht="15.5" customHeight="1">
       <c r="A111" t="s">
         <v>74</v>
       </c>
       <c r="P111" s="32"/>
     </row>
-    <row r="112" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:16" ht="15.5" customHeight="1">
       <c r="A112" t="s">
         <v>75</v>
       </c>
       <c r="P112" s="32"/>
     </row>
-    <row r="113" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:16" ht="15.5" customHeight="1">
       <c r="A113" t="s">
         <v>76</v>
       </c>
       <c r="P113" s="32"/>
     </row>
-    <row r="114" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:16" ht="15.5" customHeight="1">
       <c r="A114" t="s">
         <v>77</v>
       </c>
       <c r="P114" s="32"/>
     </row>
-    <row r="115" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:16" ht="15.5" customHeight="1">
       <c r="A115" t="s">
         <v>78</v>
       </c>
       <c r="P115" s="32"/>
     </row>
-    <row r="116" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:16" ht="15.5" customHeight="1">
       <c r="A116" t="s">
         <v>79</v>
       </c>
       <c r="P116" s="32"/>
     </row>
-    <row r="117" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:16" ht="15.5" customHeight="1">
       <c r="A117" t="s">
         <v>80</v>
       </c>
       <c r="P117" s="32"/>
     </row>
-    <row r="118" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:16" ht="15.5" customHeight="1">
       <c r="A118" t="s">
         <v>81</v>
       </c>
       <c r="P118" s="32"/>
     </row>
-    <row r="119" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:16" ht="15.5" customHeight="1">
       <c r="A119" t="s">
         <v>82</v>
       </c>
       <c r="P119" s="32"/>
     </row>
-    <row r="120" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:16" ht="15.5" customHeight="1">
       <c r="A120" t="s">
         <v>83</v>
       </c>
       <c r="P120" s="32"/>
     </row>
-    <row r="121" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:16" ht="15.5" customHeight="1">
       <c r="A121" t="s">
         <v>84</v>
       </c>
       <c r="P121" s="32"/>
     </row>
-    <row r="122" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:16" ht="15.5" customHeight="1">
       <c r="A122" t="s">
         <v>116</v>
       </c>
       <c r="P122" s="32"/>
     </row>
-    <row r="123" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:16" ht="15.5" customHeight="1">
       <c r="A123" t="s">
         <v>115</v>
       </c>
       <c r="P123" s="32"/>
     </row>
-    <row r="124" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:16" ht="15.5" customHeight="1">
       <c r="P124" s="32"/>
     </row>
-    <row r="125" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:16" ht="15.5" customHeight="1">
       <c r="P125" s="32"/>
     </row>
-    <row r="126" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:16" ht="15.5" customHeight="1">
       <c r="P126" s="32"/>
     </row>
-    <row r="127" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:16" ht="15.5" customHeight="1">
       <c r="P127" s="32"/>
     </row>
-    <row r="128" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:16" ht="15.5" customHeight="1">
       <c r="P128" s="32"/>
     </row>
-    <row r="129" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="16:16" ht="15.5" customHeight="1">
       <c r="P129" s="32"/>
     </row>
-    <row r="130" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="16:16" ht="15.5" customHeight="1">
       <c r="P130" s="32"/>
     </row>
-    <row r="131" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="16:16" ht="15.5" customHeight="1">
       <c r="P131" s="32"/>
     </row>
-    <row r="132" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="16:16" ht="15.5" customHeight="1">
       <c r="P132" s="32"/>
     </row>
-    <row r="133" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="16:16" ht="15.5" customHeight="1">
       <c r="P133" s="32"/>
     </row>
-    <row r="134" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="16:16" ht="15.5" customHeight="1">
       <c r="P134" s="32"/>
     </row>
-    <row r="135" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="16:16" ht="15.5" customHeight="1">
       <c r="P135" s="32"/>
     </row>
-    <row r="136" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="16:16" ht="15.5" customHeight="1">
       <c r="P136" s="32"/>
     </row>
-    <row r="137" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="16:16" ht="15.5" customHeight="1">
       <c r="P137" s="32"/>
     </row>
-    <row r="138" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="16:16" ht="15.5" customHeight="1">
       <c r="P138" s="32"/>
     </row>
-    <row r="139" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="16:16" ht="15.5" customHeight="1">
       <c r="P139" s="32"/>
     </row>
-    <row r="140" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="16:16" ht="15.5" customHeight="1">
       <c r="P140" s="32"/>
     </row>
-    <row r="141" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="16:16" ht="15.5" customHeight="1">
       <c r="P141" s="32"/>
     </row>
-    <row r="142" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="16:16" ht="15.5" customHeight="1">
       <c r="P142" s="32"/>
     </row>
-    <row r="143" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="16:16" ht="15.5" customHeight="1">
       <c r="P143" s="32"/>
     </row>
-    <row r="144" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="16:16" ht="15.5" customHeight="1">
       <c r="P144" s="32"/>
     </row>
-    <row r="145" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="16:16" ht="15.5" customHeight="1">
       <c r="P145" s="32"/>
     </row>
-    <row r="146" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="16:16" ht="15.5" customHeight="1">
       <c r="P146" s="32"/>
     </row>
-    <row r="147" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="16:16" ht="15.5" customHeight="1">
       <c r="P147" s="32"/>
     </row>
-    <row r="148" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="16:16" ht="15.5" customHeight="1">
       <c r="P148" s="32"/>
     </row>
-    <row r="149" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="16:16" ht="15.5" customHeight="1">
       <c r="P149" s="32"/>
     </row>
-    <row r="150" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="16:16" ht="15.5" customHeight="1">
       <c r="P150" s="32"/>
     </row>
-    <row r="151" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="16:16" ht="15.5" customHeight="1">
       <c r="P151" s="32"/>
     </row>
-    <row r="152" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="16:16" ht="15.5" customHeight="1">
       <c r="P152" s="32"/>
     </row>
-    <row r="153" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="16:16" ht="15.5" customHeight="1">
       <c r="P153" s="32"/>
     </row>
-    <row r="154" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="16:16" ht="15.5" customHeight="1">
       <c r="P154" s="32"/>
     </row>
-    <row r="155" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="16:16" ht="15.5" customHeight="1">
       <c r="P155" s="32"/>
     </row>
-    <row r="156" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="16:16" ht="15.5" customHeight="1">
       <c r="P156" s="32"/>
     </row>
-    <row r="157" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="16:16" ht="15.5" customHeight="1">
       <c r="P157" s="32"/>
     </row>
-    <row r="158" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="16:16" ht="15.5" customHeight="1">
       <c r="P158" s="32"/>
     </row>
-    <row r="159" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="16:16" ht="15.5" customHeight="1">
       <c r="P159" s="32"/>
     </row>
-    <row r="160" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="16:16" ht="15.5" customHeight="1">
       <c r="P160" s="32"/>
     </row>
-    <row r="161" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="16:16" ht="15.5" customHeight="1">
       <c r="P161" s="32"/>
     </row>
-    <row r="162" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="16:16" ht="15.5" customHeight="1">
       <c r="P162" s="32"/>
     </row>
-    <row r="163" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="16:16" ht="15.5" customHeight="1">
       <c r="P163" s="32"/>
     </row>
-    <row r="164" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="16:16" ht="15.5" customHeight="1">
       <c r="P164" s="32"/>
     </row>
-    <row r="165" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="16:16" ht="15.5" customHeight="1">
       <c r="P165" s="32"/>
     </row>
-    <row r="166" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="16:16" ht="15.5" customHeight="1">
       <c r="P166" s="32"/>
     </row>
-    <row r="167" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="16:16" ht="15.5" customHeight="1">
       <c r="P167" s="32"/>
     </row>
-    <row r="168" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="16:16" ht="15.5" customHeight="1">
       <c r="P168" s="32"/>
     </row>
-    <row r="169" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="16:16" ht="15.5" customHeight="1">
       <c r="P169" s="32"/>
     </row>
-    <row r="170" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="16:16" ht="15.5" customHeight="1">
       <c r="P170" s="32"/>
     </row>
-    <row r="171" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="16:16" ht="15.5" customHeight="1">
       <c r="P171" s="32"/>
     </row>
-    <row r="172" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="16:16" ht="15.5" customHeight="1">
       <c r="P172" s="32"/>
     </row>
-    <row r="173" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="16:16" ht="15.5" customHeight="1">
       <c r="P173" s="32"/>
     </row>
-    <row r="174" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="16:16" ht="15.5" customHeight="1">
       <c r="P174" s="32"/>
     </row>
-    <row r="175" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="16:16" ht="15.5" customHeight="1">
       <c r="P175" s="32"/>
     </row>
-    <row r="176" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="16:16" ht="15.5" customHeight="1">
       <c r="P176" s="32"/>
     </row>
-    <row r="177" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="16:16" ht="15.5" customHeight="1">
       <c r="P177" s="32"/>
     </row>
-    <row r="178" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="16:16" ht="15.5" customHeight="1">
       <c r="P178" s="32"/>
     </row>
-    <row r="179" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="16:16" ht="15.5" customHeight="1">
       <c r="P179" s="32"/>
     </row>
-    <row r="180" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="16:16" ht="15.5" customHeight="1">
       <c r="P180" s="32"/>
     </row>
-    <row r="181" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="16:16" ht="15.5" customHeight="1">
       <c r="P181" s="32"/>
     </row>
-    <row r="182" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="16:16" ht="15.5" customHeight="1">
       <c r="P182" s="32"/>
     </row>
-    <row r="183" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="16:16" ht="15.5" customHeight="1">
       <c r="P183" s="32"/>
     </row>
-    <row r="184" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="16:16" ht="15.5" customHeight="1">
       <c r="P184" s="32"/>
     </row>
-    <row r="185" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="16:16" ht="15.5" customHeight="1">
       <c r="P185" s="32"/>
     </row>
-    <row r="186" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="16:16" ht="15.5" customHeight="1">
       <c r="P186" s="32"/>
     </row>
-    <row r="187" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="16:16" ht="15.5" customHeight="1">
       <c r="P187" s="32"/>
     </row>
-    <row r="188" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="16:16" ht="15.5" customHeight="1">
       <c r="P188" s="32"/>
     </row>
-    <row r="189" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="16:16" ht="15.5" customHeight="1">
       <c r="P189" s="32"/>
     </row>
-    <row r="190" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="16:16" ht="15.5" customHeight="1">
       <c r="P190" s="32"/>
     </row>
-    <row r="191" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="16:16" ht="15.5" customHeight="1">
       <c r="P191" s="32"/>
     </row>
-    <row r="192" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="16:16" ht="15.5" customHeight="1">
       <c r="P192" s="32"/>
     </row>
-    <row r="193" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="16:16" ht="15.5" customHeight="1">
       <c r="P193" s="32"/>
     </row>
-    <row r="194" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="16:16" ht="15.5" customHeight="1">
       <c r="P194" s="32"/>
     </row>
-    <row r="195" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="16:16" ht="15.5" customHeight="1">
       <c r="P195" s="32"/>
     </row>
-    <row r="196" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="16:16" ht="15.5" customHeight="1">
       <c r="P196" s="32"/>
     </row>
-    <row r="197" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="16:16" ht="15.5" customHeight="1">
       <c r="P197" s="32"/>
     </row>
-    <row r="198" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="16:16" ht="15.5" customHeight="1">
       <c r="P198" s="32"/>
     </row>
-    <row r="199" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="16:16" ht="15.5" customHeight="1">
       <c r="P199" s="32"/>
     </row>
-    <row r="200" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="16:16" ht="15.5" customHeight="1">
       <c r="P200" s="32"/>
     </row>
-    <row r="201" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="16:16" ht="15.5" customHeight="1">
       <c r="P201" s="32"/>
     </row>
-    <row r="202" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="16:16" ht="15.5" customHeight="1">
       <c r="P202" s="32"/>
     </row>
-    <row r="203" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="16:16" ht="15.5" customHeight="1">
       <c r="P203" s="32"/>
     </row>
-    <row r="204" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="16:16" ht="15.5" customHeight="1">
       <c r="P204" s="32"/>
     </row>
-    <row r="205" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="16:16" ht="15.5" customHeight="1">
       <c r="P205" s="32"/>
     </row>
-    <row r="206" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="16:16" ht="15.5" customHeight="1">
       <c r="P206" s="32"/>
     </row>
-    <row r="207" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="16:16" ht="15.5" customHeight="1">
       <c r="P207" s="32"/>
     </row>
-    <row r="208" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="16:16" ht="15.5" customHeight="1">
       <c r="P208" s="32"/>
     </row>
-    <row r="209" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="16:16" ht="15.5" customHeight="1">
       <c r="P209" s="32"/>
     </row>
-    <row r="210" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="16:16" ht="15.5" customHeight="1">
       <c r="P210" s="32"/>
     </row>
-    <row r="211" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="16:16" ht="15.5" customHeight="1">
       <c r="P211" s="32"/>
     </row>
-    <row r="212" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="16:16" ht="15.5" customHeight="1">
       <c r="P212" s="32"/>
     </row>
-    <row r="213" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="16:16" ht="15.5" customHeight="1">
       <c r="P213" s="32"/>
     </row>
-    <row r="214" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="16:16" ht="15.5" customHeight="1">
       <c r="P214" s="32"/>
     </row>
-    <row r="215" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="16:16" ht="15.5" customHeight="1">
       <c r="P215" s="32"/>
     </row>
-    <row r="216" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="16:16" ht="15.5" customHeight="1">
       <c r="P216" s="32"/>
     </row>
-    <row r="217" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="16:16" ht="15.5" customHeight="1">
       <c r="P217" s="32"/>
     </row>
-    <row r="218" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="16:16" ht="15.5" customHeight="1">
       <c r="P218" s="32"/>
     </row>
-    <row r="219" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="16:16" ht="15.5" customHeight="1">
       <c r="P219" s="32"/>
     </row>
-    <row r="220" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="16:16" ht="15.5" customHeight="1">
       <c r="P220" s="32"/>
     </row>
-    <row r="221" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="16:16" ht="15.5" customHeight="1">
       <c r="P221" s="32"/>
     </row>
-    <row r="222" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="16:16" ht="15.5" customHeight="1">
       <c r="P222" s="32"/>
     </row>
-    <row r="223" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="16:16" ht="15.5" customHeight="1">
       <c r="P223" s="32"/>
     </row>
-    <row r="224" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="16:16" ht="15.5" customHeight="1">
       <c r="P224" s="32"/>
     </row>
-    <row r="225" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="16:16" ht="15.5" customHeight="1">
       <c r="P225" s="32"/>
     </row>
-    <row r="226" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="16:16" ht="15.5" customHeight="1">
       <c r="P226" s="32"/>
     </row>
-    <row r="227" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="16:16" ht="15.5" customHeight="1">
       <c r="P227" s="32"/>
     </row>
-    <row r="228" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="16:16" ht="15.5" customHeight="1">
       <c r="P228" s="32"/>
     </row>
-    <row r="229" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="16:16" ht="15.5" customHeight="1">
       <c r="P229" s="32"/>
     </row>
-    <row r="230" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="16:16" ht="15.5" customHeight="1">
       <c r="P230" s="32"/>
     </row>
-    <row r="231" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="16:16" ht="15.5" customHeight="1">
       <c r="P231" s="32"/>
     </row>
-    <row r="232" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="16:16" ht="15.5" customHeight="1">
       <c r="P232" s="32"/>
     </row>
-    <row r="233" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="16:16" ht="15.5" customHeight="1">
       <c r="P233" s="32"/>
     </row>
-    <row r="234" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="16:16" ht="15.5" customHeight="1">
       <c r="P234" s="32"/>
     </row>
-    <row r="235" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="16:16" ht="15.5" customHeight="1">
       <c r="P235" s="32"/>
     </row>
-    <row r="236" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="16:16" ht="15.5" customHeight="1">
       <c r="P236" s="32"/>
     </row>
-    <row r="237" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="16:16" ht="15.5" customHeight="1">
       <c r="P237" s="32"/>
     </row>
-    <row r="238" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="16:16" ht="15.5" customHeight="1">
       <c r="P238" s="32"/>
     </row>
-    <row r="239" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="16:16" ht="15.5" customHeight="1">
       <c r="P239" s="32"/>
     </row>
-    <row r="240" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="16:16" ht="15.5" customHeight="1">
       <c r="P240" s="32"/>
     </row>
-    <row r="241" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="16:16" ht="15.5" customHeight="1">
       <c r="P241" s="32"/>
     </row>
-    <row r="242" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="16:16" ht="15.5" customHeight="1">
       <c r="P242" s="32"/>
     </row>
-    <row r="243" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="16:16" ht="15.5" customHeight="1">
       <c r="P243" s="32"/>
     </row>
-    <row r="244" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="16:16" ht="15.5" customHeight="1">
       <c r="P244" s="32"/>
     </row>
-    <row r="245" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="16:16" ht="15.5" customHeight="1">
       <c r="P245" s="32"/>
     </row>
-    <row r="246" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="16:16" ht="15.5" customHeight="1">
       <c r="P246" s="32"/>
     </row>
-    <row r="247" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="16:16" ht="15.5" customHeight="1">
       <c r="P247" s="32"/>
     </row>
-    <row r="248" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="16:16" ht="15.5" customHeight="1">
       <c r="P248" s="32"/>
     </row>
-    <row r="249" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="16:16" ht="15.5" customHeight="1">
       <c r="P249" s="32"/>
     </row>
-    <row r="250" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="16:16" ht="15.5" customHeight="1">
       <c r="P250" s="32"/>
     </row>
-    <row r="251" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="16:16" ht="15.5" customHeight="1">
       <c r="P251" s="32"/>
     </row>
-    <row r="252" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="16:16" ht="15.5" customHeight="1">
       <c r="P252" s="32"/>
     </row>
-    <row r="253" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="16:16" ht="15.5" customHeight="1">
       <c r="P253" s="32"/>
     </row>
-    <row r="254" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="16:16" ht="15.5" customHeight="1">
       <c r="P254" s="32"/>
     </row>
-    <row r="255" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="16:16" ht="15.5" customHeight="1">
       <c r="P255" s="32"/>
     </row>
-    <row r="256" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="16:16" ht="15.5" customHeight="1">
       <c r="P256" s="32"/>
     </row>
-    <row r="257" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="16:16" ht="15.5" customHeight="1">
       <c r="P257" s="32"/>
     </row>
-    <row r="258" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="16:16" ht="15.5" customHeight="1">
       <c r="P258" s="32"/>
     </row>
-    <row r="259" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="16:16" ht="15.5" customHeight="1">
       <c r="P259" s="32"/>
     </row>
-    <row r="260" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="16:16" ht="15.5" customHeight="1">
       <c r="P260" s="32"/>
     </row>
-    <row r="261" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="16:16" ht="15.5" customHeight="1">
       <c r="P261" s="32"/>
     </row>
-    <row r="262" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="16:16" ht="15.5" customHeight="1">
       <c r="P262" s="32"/>
     </row>
-    <row r="263" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="16:16" ht="15.5" customHeight="1">
       <c r="P263" s="32"/>
     </row>
-    <row r="264" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="16:16" ht="15.5" customHeight="1">
       <c r="P264" s="32"/>
     </row>
-    <row r="265" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="16:16" ht="15.5" customHeight="1">
       <c r="P265" s="32"/>
     </row>
-    <row r="266" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="16:16" ht="15.5" customHeight="1">
       <c r="P266" s="32"/>
     </row>
-    <row r="267" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="16:16" ht="15.5" customHeight="1">
       <c r="P267" s="32"/>
     </row>
-    <row r="268" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="16:16" ht="15.5" customHeight="1">
       <c r="P268" s="32"/>
     </row>
-    <row r="269" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="16:16" ht="15.5" customHeight="1">
       <c r="P269" s="32"/>
     </row>
-    <row r="270" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="16:16" ht="15.5" customHeight="1">
       <c r="P270" s="32"/>
     </row>
-    <row r="271" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="16:16" ht="15.5" customHeight="1">
       <c r="P271" s="32"/>
     </row>
-    <row r="272" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="16:16" ht="15.5" customHeight="1">
       <c r="P272" s="32"/>
     </row>
-    <row r="273" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="16:16" ht="15.5" customHeight="1">
       <c r="P273" s="32"/>
     </row>
-    <row r="274" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="16:16" ht="15.5" customHeight="1">
       <c r="P274" s="32"/>
     </row>
-    <row r="275" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="16:16" ht="15.5" customHeight="1">
       <c r="P275" s="32"/>
     </row>
-    <row r="276" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="16:16" ht="15.5" customHeight="1">
       <c r="P276" s="32"/>
     </row>
-    <row r="277" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="16:16" ht="15.5" customHeight="1">
       <c r="P277" s="32"/>
     </row>
-    <row r="278" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="16:16" ht="15.5" customHeight="1">
       <c r="P278" s="32"/>
     </row>
-    <row r="279" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="16:16" ht="15.5" customHeight="1">
       <c r="P279" s="32"/>
     </row>
-    <row r="280" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="16:16" ht="15.5" customHeight="1">
       <c r="P280" s="32"/>
     </row>
-    <row r="281" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="16:16" ht="15.5" customHeight="1">
       <c r="P281" s="32"/>
     </row>
-    <row r="282" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="16:16" ht="15.5" customHeight="1">
       <c r="P282" s="32"/>
     </row>
-    <row r="283" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="16:16" ht="15.5" customHeight="1">
       <c r="P283" s="32"/>
     </row>
-    <row r="284" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="16:16" ht="15.5" customHeight="1">
       <c r="P284" s="32"/>
     </row>
-    <row r="285" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="16:16" ht="15.5" customHeight="1">
       <c r="P285" s="32"/>
     </row>
-    <row r="286" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="16:16" ht="15.5" customHeight="1">
       <c r="P286" s="32"/>
     </row>
-    <row r="287" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="16:16" ht="15.5" customHeight="1">
       <c r="P287" s="32"/>
     </row>
-    <row r="288" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="16:16" ht="15.5" customHeight="1">
       <c r="P288" s="32"/>
     </row>
-    <row r="289" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="16:16" ht="15.5" customHeight="1">
       <c r="P289" s="32"/>
     </row>
-    <row r="290" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="16:16" ht="15.5" customHeight="1">
       <c r="P290" s="32"/>
     </row>
-    <row r="291" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="16:16" ht="15.5" customHeight="1">
       <c r="P291" s="32"/>
     </row>
-    <row r="292" spans="16:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="16:16" ht="15.5" customHeight="1">
       <c r="P292" s="32"/>
     </row>
   </sheetData>
@@ -5242,6 +5224,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5256,12 +5244,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5315,27 +5297,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" style="2"/>
     <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.796875" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5352,7 +5334,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -5376,7 +5358,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -5395,7 +5377,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -5414,7 +5396,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5430,7 +5412,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5447,7 +5429,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5464,7 +5446,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5479,7 +5461,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5494,7 +5476,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5509,7 +5491,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5524,7 +5506,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5539,7 +5521,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5554,7 +5536,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5569,7 +5551,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5584,7 +5566,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5599,7 +5581,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -5613,7 +5595,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -5627,7 +5609,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -5641,7 +5623,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -5655,7 +5637,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5670,7 +5652,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5685,7 +5667,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5700,7 +5682,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5715,7 +5697,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5730,7 +5712,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5745,7 +5727,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5760,7 +5742,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5775,7 +5757,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5790,7 +5772,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5805,7 +5787,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5820,7 +5802,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5835,7 +5817,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5850,7 +5832,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5865,7 +5847,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5880,7 +5862,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5895,7 +5877,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5910,7 +5892,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5925,7 +5907,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5940,7 +5922,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5955,7 +5937,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5970,7 +5952,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5985,7 +5967,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -6000,7 +5982,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -6015,7 +5997,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -6030,7 +6012,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -6045,7 +6027,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -6060,7 +6042,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -6075,7 +6057,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -6087,7 +6069,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -6099,7 +6081,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -6112,7 +6094,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -6125,7 +6107,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -6138,7 +6120,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -6151,7 +6133,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -6164,7 +6146,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -6177,7 +6159,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -6190,7 +6172,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -6203,7 +6185,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -6216,7 +6198,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -6229,7 +6211,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -6242,7 +6224,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6255,7 +6237,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6268,7 +6250,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6281,7 +6263,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6294,7 +6276,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -6307,7 +6289,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -6320,7 +6302,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -6333,7 +6315,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -6346,7 +6328,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -6359,7 +6341,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6373,7 +6355,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6387,7 +6369,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6401,7 +6383,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6415,7 +6397,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6429,7 +6411,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6443,7 +6425,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6457,7 +6439,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6471,7 +6453,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6485,7 +6467,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6499,7 +6481,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6513,7 +6495,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6527,7 +6509,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6541,7 +6523,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -6555,7 +6537,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -6569,7 +6551,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -6583,7 +6565,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6597,7 +6579,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6611,7 +6593,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6625,7 +6607,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6639,7 +6621,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6653,7 +6635,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6667,7 +6649,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6681,7 +6663,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6695,7 +6677,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6709,7 +6691,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6723,7 +6705,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6737,7 +6719,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6751,7 +6733,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6765,7 +6747,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6779,7 +6761,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6793,7 +6775,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6807,7 +6789,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6821,7 +6803,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6835,7 +6817,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6849,7 +6831,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6863,7 +6845,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6877,7 +6859,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6891,7 +6873,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6905,7 +6887,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6919,7 +6901,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6933,7 +6915,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6947,7 +6929,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6961,7 +6943,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6975,7 +6957,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6989,7 +6971,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -7003,7 +6985,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -7017,7 +6999,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -7031,7 +7013,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -7045,7 +7027,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -7059,7 +7041,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -7073,7 +7055,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -7087,7 +7069,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -7101,7 +7083,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -7115,7 +7097,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -7129,7 +7111,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -7143,7 +7125,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7157,7 +7139,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7171,7 +7153,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7185,7 +7167,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7199,7 +7181,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7213,7 +7195,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7227,7 +7209,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado10/guion05/Escaleta_LE_10_05.xlsx
+++ b/fuentes/contenidos/grado10/guion05/Escaleta_LE_10_05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -530,9 +530,6 @@
     <t>Actividad para practicar la comprensión del poeta andaluz</t>
   </si>
   <si>
-    <t>La recepción del discurso</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: La recepción del discurso</t>
   </si>
   <si>
@@ -783,6 +780,9 @@
   </si>
   <si>
     <t xml:space="preserve">La estructura de una monografía </t>
+  </si>
+  <si>
+    <t>La estética de la recepción</t>
   </si>
 </sst>
 </file>
@@ -1218,16 +1218,34 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,24 +1285,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1729,9 +1729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1759,94 +1759,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="R1" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="15.5" customHeight="1" thickBot="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="56"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="41"/>
     </row>
     <row r="3" spans="1:21" ht="15.5" customHeight="1" thickTop="1">
       <c r="A3" s="16" t="s">
@@ -1884,7 +1884,7 @@
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
       <c r="O3" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P3" s="29" t="s">
         <v>19</v>
@@ -1943,7 +1943,7 @@
         <v>32</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P4" s="31" t="s">
         <v>19</v>
@@ -2002,7 +2002,7 @@
         <v>28</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>19</v>
@@ -2061,7 +2061,7 @@
         <v>121</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P6" s="31" t="s">
         <v>19</v>
@@ -2122,7 +2122,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P7" s="31" t="s">
         <v>19</v>
@@ -2183,7 +2183,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P8" s="31" t="s">
         <v>19</v>
@@ -2244,7 +2244,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>19</v>
@@ -2305,7 +2305,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P10" s="31" t="s">
         <v>19</v>
@@ -2366,7 +2366,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>19</v>
@@ -2427,7 +2427,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P12" s="31" t="s">
         <v>19</v>
@@ -2488,7 +2488,7 @@
         <v>121</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>19</v>
@@ -2520,14 +2520,14 @@
         <v>123</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="34" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="H14" s="31">
         <v>12</v>
@@ -2536,7 +2536,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P14" s="31" t="s">
         <v>19</v>
@@ -2558,16 +2558,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S14" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="T14" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="U14" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.5" customHeight="1">
@@ -2581,16 +2581,16 @@
         <v>123</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H15" s="31">
         <v>13</v>
@@ -2599,7 +2599,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2612,7 +2612,7 @@
         <v>36</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>19</v>
@@ -2627,7 +2627,7 @@
         <v>131</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U15" s="10" t="s">
         <v>133</v>
@@ -2644,14 +2644,14 @@
         <v>123</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>163</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H16" s="31">
         <v>14</v>
@@ -2660,7 +2660,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2673,7 +2673,7 @@
         <v>121</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P16" s="31" t="s">
         <v>19</v>
@@ -2688,7 +2688,7 @@
         <v>131</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U16" s="10" t="s">
         <v>133</v>
@@ -2705,12 +2705,12 @@
         <v>123</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
       <c r="G17" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H17" s="31">
         <v>15</v>
@@ -2719,7 +2719,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>19</v>
@@ -2741,16 +2741,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S17" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="S17" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="T17" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.5" customHeight="1">
@@ -2764,14 +2764,14 @@
         <v>123</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H18" s="31">
         <v>16</v>
@@ -2780,7 +2780,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2793,7 +2793,7 @@
         <v>27</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P18" s="31" t="s">
         <v>19</v>
@@ -2808,7 +2808,7 @@
         <v>131</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U18" s="10" t="s">
         <v>133</v>
@@ -2825,14 +2825,14 @@
         <v>123</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>163</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H19" s="31">
         <v>17</v>
@@ -2841,7 +2841,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2854,7 +2854,7 @@
         <v>121</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P19" s="31" t="s">
         <v>19</v>
@@ -2869,7 +2869,7 @@
         <v>131</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U19" s="10" t="s">
         <v>133</v>
@@ -2886,7 +2886,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
@@ -2900,7 +2900,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P20" s="31" t="s">
         <v>19</v>
@@ -2922,16 +2922,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="S20" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="T20" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.5" customHeight="1">
@@ -2945,14 +2945,14 @@
         <v>123</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H21" s="31">
         <v>19</v>
@@ -2961,7 +2961,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2974,7 +2974,7 @@
         <v>36</v>
       </c>
       <c r="O21" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P21" s="31" t="s">
         <v>19</v>
@@ -2989,7 +2989,7 @@
         <v>131</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>133</v>
@@ -3006,14 +3006,14 @@
         <v>123</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>163</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H22" s="31">
         <v>20</v>
@@ -3022,7 +3022,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -3035,7 +3035,7 @@
         <v>121</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P22" s="31" t="s">
         <v>19</v>
@@ -3050,7 +3050,7 @@
         <v>131</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U22" s="10" t="s">
         <v>133</v>
@@ -3067,14 +3067,14 @@
         <v>123</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H23" s="31">
         <v>21</v>
@@ -3083,7 +3083,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -3096,7 +3096,7 @@
         <v>24</v>
       </c>
       <c r="O23" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>19</v>
@@ -3111,7 +3111,7 @@
         <v>131</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>133</v>
@@ -3128,14 +3128,14 @@
         <v>123</v>
       </c>
       <c r="D24" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H24" s="31">
         <v>22</v>
@@ -3144,7 +3144,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P24" s="31" t="s">
         <v>19</v>
@@ -3166,16 +3166,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="S24" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="T24" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.5" customHeight="1">
@@ -3189,14 +3189,14 @@
         <v>123</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>163</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H25" s="31">
         <v>23</v>
@@ -3205,7 +3205,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -3218,7 +3218,7 @@
         <v>121</v>
       </c>
       <c r="O25" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P25" s="31" t="s">
         <v>19</v>
@@ -3227,16 +3227,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S25" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="T25" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="T25" s="12" t="s">
+      <c r="U25" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.5" customHeight="1">
@@ -3250,12 +3250,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H26" s="31">
         <v>24</v>
@@ -3264,7 +3264,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -3277,7 +3277,7 @@
         <v>120</v>
       </c>
       <c r="O26" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P26" s="31" t="s">
         <v>19</v>
@@ -3292,7 +3292,7 @@
         <v>131</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>133</v>
@@ -3309,7 +3309,7 @@
         <v>123</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
@@ -3323,7 +3323,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -3354,12 +3354,12 @@
         <v>123</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" s="31">
         <v>26</v>
@@ -3368,7 +3368,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3381,7 +3381,7 @@
         <v>32</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P28" s="31" t="s">
         <v>19</v>
@@ -3396,7 +3396,7 @@
         <v>131</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>133</v>
@@ -3413,7 +3413,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
@@ -3425,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3438,7 +3438,7 @@
         <v>52</v>
       </c>
       <c r="O29" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P29" s="31" t="s">
         <v>20</v>
@@ -3453,7 +3453,7 @@
         <v>131</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U29" s="10" t="s">
         <v>133</v>
@@ -5224,12 +5224,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5244,6 +5238,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/fuentes/contenidos/grado10/guion05/Escaleta_LE_10_05.xlsx
+++ b/fuentes/contenidos/grado10/guion05/Escaleta_LE_10_05.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -767,15 +767,9 @@
     <t xml:space="preserve">(DBA: 6) Diseñar preguntas sobre la experiencia de realizar una monografía. </t>
   </si>
   <si>
-    <t>Proyecto: realiza el marco teórico de una monografía sobre García Lorca</t>
-  </si>
-  <si>
     <t>(DBA: 3) Diseñar recurso F13 para ser insertado.</t>
   </si>
   <si>
-    <t>Actividad para investigar sobre la vida y obra del escritor granadino</t>
-  </si>
-  <si>
     <t>La teoría de la recepción</t>
   </si>
   <si>
@@ -783,6 +777,12 @@
   </si>
   <si>
     <t>La estética de la recepción</t>
+  </si>
+  <si>
+    <t>Proyecto: investiga sobre Federico García Lorca</t>
+  </si>
+  <si>
+    <t>Actividad para estudiar la vida y obra del escritor granadino</t>
   </si>
 </sst>
 </file>
@@ -1218,34 +1218,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,6 +1267,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1729,9 +1729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -1759,94 +1759,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="15.5" customHeight="1" thickBot="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="53"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="56"/>
     </row>
     <row r="3" spans="1:21" ht="15.5" customHeight="1" thickTop="1">
       <c r="A3" s="16" t="s">
@@ -2523,11 +2523,11 @@
         <v>192</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H14" s="31">
         <v>12</v>
@@ -2584,7 +2584,7 @@
         <v>192</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>179</v>
@@ -3070,7 +3070,7 @@
         <v>205</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="34" t="s">
@@ -3255,7 +3255,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="34" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H26" s="31">
         <v>24</v>
@@ -3264,7 +3264,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -3277,7 +3277,7 @@
         <v>120</v>
       </c>
       <c r="O26" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P26" s="31" t="s">
         <v>19</v>
@@ -5224,6 +5224,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5238,12 +5244,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
